--- a/Data/Metric 6/Defect Density.xlsx
+++ b/Data/Metric 6/Defect Density.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Project</t>
   </si>
@@ -53,22 +53,10 @@
     <t>Apache Commons Configuration</t>
   </si>
   <si>
-    <t>JFreeChart</t>
-  </si>
-  <si>
-    <t>1.5.0</t>
-  </si>
-  <si>
-    <t>1.0.19</t>
-  </si>
-  <si>
-    <t>1.0.18</t>
-  </si>
-  <si>
-    <t>1.0.17</t>
-  </si>
-  <si>
-    <t>1.0.16</t>
+    <t>Apache Maven Doxia</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
   </si>
 </sst>
 </file>
@@ -774,75 +762,75 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
+      <c r="C20" s="2">
+        <v>1.6</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>308748</v>
+        <v>51976</v>
       </c>
       <c r="F20" s="2">
-        <v>308.74799999999999</v>
+        <v>51.975999999999999</v>
       </c>
       <c r="G20" s="2">
         <f>D20/F20</f>
-        <v>9.7166621322243383E-3</v>
+        <v>0.25011543789441282</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>13</v>
+      <c r="C21" s="2">
+        <v>1.7</v>
       </c>
       <c r="D21" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
-        <v>311144</v>
+        <v>52821</v>
       </c>
       <c r="F21" s="2">
-        <v>311.14400000000001</v>
+        <v>52.820999999999998</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ref="G21:G24" si="3">D21/F21</f>
-        <v>3.5353405497133158E-2</v>
+        <v>0.41650101285473584</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>12</v>
+      <c r="C22" s="2">
+        <v>1.8</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2">
-        <v>318874</v>
+        <v>50236</v>
       </c>
       <c r="F22" s="2">
-        <v>318.87400000000002</v>
+        <v>50.235999999999997</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>9.4081047686547029E-3</v>
+        <v>0.37821482602118006</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>11</v>
+      <c r="C23" s="2">
+        <v>1.9</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2">
-        <v>319056</v>
+        <v>58143</v>
       </c>
       <c r="F23" s="2">
-        <v>319.05599999999998</v>
+        <v>58.143000000000001</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="3"/>
-        <v>9.4027380773281186E-3</v>
+        <v>0.20638769929312212</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,17 +838,17 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>296835</v>
+        <v>58343</v>
       </c>
       <c r="F24" s="2">
-        <v>296.83499999999998</v>
+        <v>58.343000000000004</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="3"/>
-        <v>1.3475499856822814E-2</v>
+        <v>1.714001679721646E-2</v>
       </c>
     </row>
   </sheetData>
